--- a/data/trans_dic/DCD-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Edad-trans_dic.xlsx
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,77</t>
+          <t>0,48; 2,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,65</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,87</t>
+          <t>0,54; 5,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 7,24</t>
+          <t>3,02; 7,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,39</t>
+          <t>1,93; 5,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 22,58</t>
+          <t>11,0; 22,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,28</t>
+          <t>1,93; 4,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,04</t>
+          <t>1,19; 2,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,53</t>
+          <t>6,07; 11,9</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,39</t>
+          <t>1,73; 4,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,9</t>
+          <t>1,7; 4,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,73</t>
+          <t>2,75; 7,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,18</t>
+          <t>4,88; 9,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,18</t>
+          <t>4,83; 9,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,68; 17,85</t>
+          <t>10,81; 17,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,87</t>
+          <t>3,43; 5,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,08</t>
+          <t>3,58; 6,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,56; 11,97</t>
+          <t>7,59; 12,29</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,31</t>
+          <t>2,86; 6,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,67</t>
+          <t>2,4; 5,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 10,21</t>
+          <t>5,42; 10,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 14,49</t>
+          <t>9,48; 14,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,46</t>
+          <t>6,73; 11,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,74; 19,6</t>
+          <t>13,65; 19,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 9,65</t>
+          <t>6,75; 9,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,74</t>
+          <t>5,14; 7,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,48; 14,24</t>
+          <t>10,55; 14,15</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,84</t>
+          <t>4,87; 8,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,53</t>
+          <t>4,74; 8,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,93; 16,0</t>
+          <t>9,96; 16,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,76; 17,83</t>
+          <t>11,49; 17,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,52; 15,77</t>
+          <t>10,46; 15,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,91; 27,91</t>
+          <t>21,72; 27,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,4</t>
+          <t>8,89; 12,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,11; 11,47</t>
+          <t>8,02; 11,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,62; 21,26</t>
+          <t>16,33; 21,12</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,23; 11,4</t>
+          <t>6,27; 11,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,15; 15,81</t>
+          <t>9,35; 15,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,09; 23,41</t>
+          <t>17,22; 23,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,37</t>
+          <t>17,53; 25,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,71; 21,94</t>
+          <t>14,73; 21,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,73; 34,65</t>
+          <t>28,78; 34,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,86</t>
+          <t>12,66; 17,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,87; 17,7</t>
+          <t>12,71; 17,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,74; 28,61</t>
+          <t>23,62; 27,98</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,22; 20,94</t>
+          <t>14,29; 20,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,29; 16,76</t>
+          <t>11,47; 16,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,83; 26,0</t>
+          <t>20,78; 26,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,25; 37,35</t>
+          <t>30,38; 37,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,01; 26,78</t>
+          <t>20,09; 26,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,69; 43,0</t>
+          <t>26,34; 43,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,99; 29,07</t>
+          <t>24,08; 29,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,86; 21,58</t>
+          <t>17,1; 21,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>25,51; 34,84</t>
+          <t>24,55; 34,81</t>
         </is>
       </c>
     </row>
@@ -1569,17 +1569,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,5</t>
+          <t>5,85; 7,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,63</t>
+          <t>5,86; 7,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,13; 14,65</t>
+          <t>12,03; 14,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,17 +1589,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,09; 17,61</t>
+          <t>15,14; 17,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,22</t>
+          <t>11,81; 14,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,39; 27,3</t>
+          <t>23,3; 27,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,85; 12,47</t>
+          <t>10,82; 12,39</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,25; 10,71</t>
+          <t>9,24; 10,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,57; 20,79</t>
+          <t>18,62; 20,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,83</t>
+          <t>0,44; 2,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 7,39</t>
+          <t>2,94; 7,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,52</t>
+          <t>1,91; 5,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,24</t>
+          <t>2,05; 4,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,97</t>
+          <t>1,17; 2,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,29</t>
+          <t>1,63; 4,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,67</t>
+          <t>1,76; 4,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,16</t>
+          <t>4,81; 9,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,03</t>
+          <t>4,71; 9,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,95</t>
+          <t>3,57; 6,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,17</t>
+          <t>3,65; 6,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,13</t>
+          <t>2,96; 6,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,73</t>
+          <t>2,51; 5,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 14,46</t>
+          <t>9,56; 14,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 11,11</t>
+          <t>6,8; 11,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 9,9</t>
+          <t>6,64; 9,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 7,83</t>
+          <t>5,07; 7,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,8</t>
+          <t>4,78; 9,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 8,87</t>
+          <t>4,77; 8,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,49; 17,79</t>
+          <t>11,55; 17,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,46; 15,91</t>
+          <t>10,3; 15,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,48</t>
+          <t>9,12; 12,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,56</t>
+          <t>8,13; 11,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,83</t>
+          <t>6,49; 11,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,35; 15,35</t>
+          <t>9,51; 16,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,53; 25,89</t>
+          <t>17,4; 25,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,73; 21,97</t>
+          <t>14,56; 21,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,66; 17,89</t>
+          <t>12,94; 17,71</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,71; 17,54</t>
+          <t>12,78; 17,5</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,29; 20,96</t>
+          <t>14,05; 20,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,47; 16,97</t>
+          <t>11,43; 16,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,38; 37,2</t>
+          <t>30,34; 37,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,09; 26,27</t>
+          <t>20,05; 26,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,08; 29,24</t>
+          <t>24,29; 29,32</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,1; 21,5</t>
+          <t>17,14; 21,77</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 7,59</t>
+          <t>5,77; 7,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,71</t>
+          <t>5,91; 7,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,14; 17,66</t>
+          <t>15,02; 17,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,81; 14,22</t>
+          <t>11,92; 14,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1609,12 +1609,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,82; 12,39</t>
+          <t>10,76; 12,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,24; 10,71</t>
+          <t>9,24; 10,68</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/DCD-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,82</t>
+          <t>0,43; 2,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,31</t>
+          <t>0,0; 4,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,31</t>
+          <t>3,0; 7,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,35</t>
+          <t>2,15; 5,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,0; 22,07</t>
+          <t>10,78; 22,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,42</t>
+          <t>2,03; 4,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,94</t>
+          <t>1,1; 3,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,9</t>
+          <t>6,15; 12,53</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,26</t>
+          <t>1,73; 4,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,76</t>
+          <t>1,73; 4,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,7</t>
+          <t>2,58; 7,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,81; 9,08</t>
+          <t>4,91; 9,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 9,03</t>
+          <t>4,8; 9,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,81; 17,85</t>
+          <t>10,68; 17,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,07</t>
+          <t>3,49; 5,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,15</t>
+          <t>3,58; 6,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,59; 12,29</t>
+          <t>7,56; 11,97</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 6,17</t>
+          <t>2,84; 6,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,82</t>
+          <t>2,48; 5,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 10,33</t>
+          <t>5,36; 10,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,56; 14,42</t>
+          <t>9,27; 14,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,36</t>
+          <t>6,9; 11,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,65; 19,34</t>
+          <t>13,74; 19,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,64; 9,71</t>
+          <t>6,7; 9,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,81</t>
+          <t>5,19; 7,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,55; 14,15</t>
+          <t>10,48; 14,24</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,08</t>
+          <t>4,7; 8,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 8,69</t>
+          <t>4,71; 8,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,96; 16,12</t>
+          <t>9,93; 16,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,55; 17,64</t>
+          <t>11,76; 17,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 15,94</t>
+          <t>10,52; 15,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,72; 27,79</t>
+          <t>21,91; 27,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 12,71</t>
+          <t>8,89; 12,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,43</t>
+          <t>8,11; 11,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,33; 21,12</t>
+          <t>16,62; 21,26</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,84</t>
+          <t>6,23; 11,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,51; 16,06</t>
+          <t>9,15; 15,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,22; 23,53</t>
+          <t>17,09; 23,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,4; 25,7</t>
+          <t>17,6; 25,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,56; 21,75</t>
+          <t>14,71; 21,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,78; 34,69</t>
+          <t>28,73; 34,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,94; 17,71</t>
+          <t>12,96; 17,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,78; 17,5</t>
+          <t>12,87; 17,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,62; 27,98</t>
+          <t>23,74; 28,61</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,05; 20,82</t>
+          <t>14,22; 20,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,43; 16,65</t>
+          <t>11,29; 16,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,78; 26,12</t>
+          <t>20,83; 26,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,34; 37,01</t>
+          <t>30,25; 37,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,05; 26,6</t>
+          <t>20,01; 26,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,34; 43,09</t>
+          <t>27,69; 43,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,29; 29,32</t>
+          <t>23,99; 29,07</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,14; 21,77</t>
+          <t>16,86; 21,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>24,55; 34,81</t>
+          <t>25,51; 34,84</t>
         </is>
       </c>
     </row>
@@ -1569,17 +1569,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,77; 7,54</t>
+          <t>5,78; 7,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,91; 7,69</t>
+          <t>5,94; 7,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,03; 14,44</t>
+          <t>12,13; 14,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1589,17 +1589,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,02; 17,63</t>
+          <t>15,09; 17,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,36</t>
+          <t>11,92; 14,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,3; 27,34</t>
+          <t>23,39; 27,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,17 +1609,17 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,76; 12,36</t>
+          <t>10,85; 12,47</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,24; 10,68</t>
+          <t>9,25; 10,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,62; 20,89</t>
+          <t>18,57; 20,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +542,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,14 +618,11 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,97%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>8,59%</t>
+          <t>8,07%</t>
         </is>
       </c>
     </row>
@@ -724,69 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,43; 2,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,77</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,65</t>
+          <t>0,0; 4,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,87</t>
+          <t>3,0; 7,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>2,15; 5,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 7,24</t>
+          <t>10,94; 22,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,39</t>
+          <t>2,03; 4,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 22,58</t>
+          <t>1,1; 3,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 4,28</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 3,04</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>6,15; 12,53</t>
+          <t>5,77; 11,78</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,62%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4,78%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>9,67%</t>
+          <t>9,03%</t>
         </is>
       </c>
     </row>
@@ -864,69 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,73; 4,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,39</t>
+          <t>1,73; 4,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,9</t>
+          <t>2,66; 7,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,73</t>
+          <t>4,91; 9,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,8; 9,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,18</t>
+          <t>8,08; 16,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,18</t>
+          <t>3,49; 5,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,68; 17,85</t>
+          <t>3,58; 6,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>3,49; 5,87</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 6,08</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>7,56; 11,97</t>
+          <t>6,66; 11,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>8,09%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>6,35%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>12,25%</t>
+          <t>12,04%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,84; 6,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,31</t>
+          <t>2,48; 5,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,67</t>
+          <t>5,44; 10,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 10,21</t>
+          <t>9,27; 14,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,9; 11,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 14,49</t>
+          <t>11,91; 19,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,46</t>
+          <t>6,7; 9,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,74; 19,6</t>
+          <t>5,19; 7,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>6,7; 9,65</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5,19; 7,74</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>10,48; 14,24</t>
+          <t>10,15; 14,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>10,55%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>9,68%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>18,92%</t>
+          <t>16,17%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>4,7; 8,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,84</t>
+          <t>4,71; 8,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,53</t>
+          <t>4,21; 14,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,93; 16,0</t>
+          <t>11,76; 17,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>10,52; 15,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,76; 17,83</t>
+          <t>19,8; 26,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,52; 15,77</t>
+          <t>8,89; 12,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,91; 27,91</t>
+          <t>8,11; 11,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>8,89; 12,4</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>8,11; 11,47</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>16,62; 21,26</t>
+          <t>10,17; 19,87</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,60 +1072,45 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>21,39%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>15,17%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>15,07%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>25,91%</t>
         </is>
@@ -1284,69 +1125,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>6,23; 11,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,23; 11,4</t>
+          <t>9,15; 15,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,15; 15,81</t>
+          <t>17,17; 23,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,09; 23,41</t>
+          <t>17,6; 25,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>14,71; 21,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,37</t>
+          <t>28,69; 34,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,71; 21,94</t>
+          <t>12,96; 17,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,73; 34,65</t>
+          <t>12,87; 17,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>12,96; 17,86</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>12,87; 17,7</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>23,74; 28,61</t>
+          <t>23,71; 28,61</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>33,62%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>26,62%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>19,21%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>31,9%</t>
+          <t>20,5%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>11,17; 19,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,22; 20,94</t>
+          <t>6,61; 13,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,29; 16,76</t>
+          <t>15,04; 21,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,83; 26,0</t>
+          <t>23,43; 33,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>13,87; 21,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,25; 37,35</t>
+          <t>7,95; 33,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,01; 26,78</t>
+          <t>18,88; 25,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,69; 43,0</t>
+          <t>11,36; 16,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>23,99; 29,07</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>16,86; 21,58</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>25,51; 34,84</t>
+          <t>9,12; 26,74</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>50,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>11,57%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>9,95%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>19,86%</t>
+          <t>42,29%</t>
         </is>
       </c>
     </row>
@@ -1564,84 +1345,180 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,08; 25,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>15,13; 24,51</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>25,54; 34,49</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>33,23; 43,75</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>23,69; 33,62</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>46,8; 53,57</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>27,62; 35,22</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21,79; 29,01</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>39,48; 44,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12,26%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13,05%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9,95%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>5,78; 7,5</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>5,94; 7,63</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>12,13; 14,65</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9,66; 13,77</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>15,09; 17,61</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>11,92; 14,22</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>23,39; 27,3</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>20,34; 26,46</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>10,85; 12,47</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>9,25; 10,71</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>18,57; 20,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>15,99; 19,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/DCD-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,77</t>
+          <t>0,43; 2,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,65</t>
+          <t>0,0; 1,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,97</t>
+          <t>0,49; 5,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 7,24</t>
+          <t>2,97; 7,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,39</t>
+          <t>1,99; 5,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,94; 22,91</t>
+          <t>11,42; 23,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,28</t>
+          <t>1,94; 4,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,04</t>
+          <t>1,17; 3,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 11,78</t>
+          <t>5,38; 11,17</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,39</t>
+          <t>1,59; 4,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,9</t>
+          <t>1,72; 4,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 7,94</t>
+          <t>2,83; 7,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,18</t>
+          <t>4,97; 8,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,18</t>
+          <t>4,72; 9,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,08; 16,68</t>
+          <t>7,46; 16,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,87</t>
+          <t>3,53; 5,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,08</t>
+          <t>3,51; 6,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,66; 11,43</t>
+          <t>6,34; 11,39</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,31</t>
+          <t>2,86; 6,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,67</t>
+          <t>2,55; 5,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 10,39</t>
+          <t>5,5; 10,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 14,49</t>
+          <t>9,52; 14,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,46</t>
+          <t>6,85; 11,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,91; 19,08</t>
+          <t>12,15; 18,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 9,65</t>
+          <t>6,65; 9,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,74</t>
+          <t>5,08; 7,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,15; 14,04</t>
+          <t>9,87; 13,88</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,84</t>
+          <t>4,61; 8,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,53</t>
+          <t>4,66; 8,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 14,81</t>
+          <t>4,31; 14,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,76; 17,83</t>
+          <t>11,72; 17,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,52; 15,77</t>
+          <t>10,33; 15,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 26,78</t>
+          <t>19,96; 26,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,4</t>
+          <t>8,96; 12,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,11; 11,47</t>
+          <t>8,06; 11,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 19,87</t>
+          <t>9,34; 19,71</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,23; 11,4</t>
+          <t>6,22; 11,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,15; 15,81</t>
+          <t>9,45; 15,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,17; 23,55</t>
+          <t>16,98; 23,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,37</t>
+          <t>17,71; 25,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,71; 21,94</t>
+          <t>14,52; 21,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,69; 34,59</t>
+          <t>28,72; 34,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,86</t>
+          <t>12,93; 17,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,87; 17,7</t>
+          <t>12,81; 17,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,71; 28,61</t>
+          <t>23,69; 28,09</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,17; 19,54</t>
+          <t>10,97; 19,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,61; 13,41</t>
+          <t>6,66; 13,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,04; 21,64</t>
+          <t>15,15; 21,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,43; 33,01</t>
+          <t>23,52; 32,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,87; 21,6</t>
+          <t>13,54; 21,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,95; 33,73</t>
+          <t>8,99; 33,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,88; 25,52</t>
+          <t>19,05; 25,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,36; 16,41</t>
+          <t>11,17; 16,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,12; 26,74</t>
+          <t>11,45; 26,95</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,08; 25,47</t>
+          <t>15,42; 25,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,13; 24,51</t>
+          <t>15,49; 24,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,54; 34,49</t>
+          <t>26,13; 34,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>33,23; 43,75</t>
+          <t>33,28; 43,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,69; 33,62</t>
+          <t>24,24; 34,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,8; 53,57</t>
+          <t>47,04; 53,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,62; 35,22</t>
+          <t>27,62; 35,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,79; 29,01</t>
+          <t>21,79; 29,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>39,48; 44,77</t>
+          <t>39,55; 45,15</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,5</t>
+          <t>5,82; 7,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,63</t>
+          <t>5,87; 7,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,66; 13,77</t>
+          <t>9,76; 13,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,09; 17,61</t>
+          <t>15,09; 17,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,22</t>
+          <t>11,91; 14,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,34; 26,46</t>
+          <t>19,84; 26,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,85; 12,47</t>
+          <t>10,85; 12,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,25; 10,71</t>
+          <t>9,21; 10,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,99; 19,89</t>
+          <t>16,09; 19,92</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico discapacitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5509</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7206</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20716</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13542</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>50324</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26225</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15532</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>57531</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1955; 12051</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6980</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1979; 20263</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12781; 31550</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7882; 21884</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>35761; 72660</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17192; 38990</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9521; 24526</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>38377; 79656</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18698</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17858</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20237</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>41271</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37334</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>64231</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>59969</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>55191</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>84468</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10956; 28911</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10186; 29106</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11982; 33571</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>30337; 54533</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>26618; 50696</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>38177; 84558</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>45749; 77661</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>40487; 70285</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>59285; 106588</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29160</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25487</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>41234</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>83566</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>58964</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>94645</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>112726</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>84450</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>135879</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19500; 41413</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17053; 38671</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29485; 56384</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>67701; 103828</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>45278; 75036</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>71923; 112253</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>92680; 134375</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>67589; 104020</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>111341; 156669</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>40662</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41756</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>89870</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>89128</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>83622</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>168927</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>129791</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>125378</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>258797</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>28344; 53716</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30116; 56605</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>38280; 131716</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>72193; 108720</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>67071; 103606</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>142292; 189891</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>110256; 152943</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>104427; 149573</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>149432; 315420</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>37310</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>58172</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>113477</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>95792</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>88759</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>173924</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>133102</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>146931</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>287401</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>26690; 50266</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>45178; 75182</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>95276; 131000</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>79314; 115430</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>72166; 106535</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>157359; 189460</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>113460; 156457</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>124854; 172342</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>262789; 311526</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>46531</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>32023</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>67209</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>99865</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>65255</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>133024</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>146396</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>97278</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>200234</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>33983; 60168</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>22255; 45449</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>55760; 78539</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>83271; 116648</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>51157; 80940</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>54699; 205753</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>126473; 168729</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>79566; 116300</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>111828; 263128</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>50399</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>50741</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>84812</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>149896</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>115029</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>214876</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>200295</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>165770</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>299688</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>38533; 64444</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>39808; 63738</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>73877; 97054</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>129461; 169192</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>96999; 136531</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>200327; 229710</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>176448; 224476</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>143215; 192496</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>280262; 319947</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1548</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>2072</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>228270</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>228026</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>424045</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>580234</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>462504</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>899952</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>808504</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>690530</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1323997</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>199449; 260328</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>199191; 260919</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>337616; 477084</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>537033; 626371</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>422039; 505227</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>736624; 976182</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>757863; 861259</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>639330; 743382</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1154101; 1428993</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>